--- a/MisureTempi.xlsx
+++ b/MisureTempi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25712"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0127FD1-1732-481E-ACAE-C9D314754BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C1B5C6-8C09-45D7-B65D-2ACE06C01AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>MQTT(ms)</t>
+    <t>MQTT(ms)- QOS 0</t>
   </si>
   <si>
     <t>REST(ms)</t>
@@ -39,20 +39,32 @@
     <t>WEBHOOK(ms)</t>
   </si>
   <si>
-    <t>MQTT_2(ms)</t>
+    <t>MQTT(ms)-QOS 1</t>
+  </si>
+  <si>
+    <t>MQTT(ms)-QOS 0 senza stampa</t>
+  </si>
+  <si>
+    <t>Media:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -391,21 +404,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,145 +432,545 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>157</v>
+        <v>2602</v>
       </c>
       <c r="B2">
-        <v>1512</v>
+        <v>2039</v>
       </c>
       <c r="C2">
-        <v>589</v>
+        <v>2932</v>
       </c>
       <c r="D2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2105</v>
+      </c>
+      <c r="E2">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>134</v>
+        <v>2111</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>2111</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>2320</v>
       </c>
       <c r="D3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2142</v>
+      </c>
+      <c r="E3">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>31</v>
+        <v>2099</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>2074</v>
       </c>
       <c r="C4">
-        <v>340</v>
+        <v>2340</v>
       </c>
       <c r="D4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2139</v>
+      </c>
+      <c r="E4">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>59</v>
+        <v>2101</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>2089</v>
       </c>
       <c r="C5">
-        <v>341</v>
+        <v>2298</v>
       </c>
       <c r="D5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2090</v>
+      </c>
+      <c r="E5">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>60</v>
+        <v>2071</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>2092</v>
       </c>
       <c r="C6">
-        <v>352</v>
+        <v>2368</v>
       </c>
       <c r="D6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2115</v>
+      </c>
+      <c r="E6">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>58</v>
+        <v>2118</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>2068</v>
       </c>
       <c r="C7">
-        <v>341</v>
+        <v>2282</v>
       </c>
       <c r="D7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2092</v>
+      </c>
+      <c r="E7">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>75</v>
+        <v>2090</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>2076</v>
       </c>
       <c r="C8">
-        <v>340</v>
+        <v>4467</v>
       </c>
       <c r="D8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2105</v>
+      </c>
+      <c r="E8">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>59</v>
+        <v>2106</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>2090</v>
       </c>
       <c r="C9">
-        <v>340</v>
+        <v>2271</v>
       </c>
       <c r="D9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2110</v>
+      </c>
+      <c r="E9">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>59</v>
+        <v>2089</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>2069</v>
       </c>
       <c r="C10">
-        <v>340</v>
+        <v>2305</v>
       </c>
       <c r="D10">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2189</v>
+      </c>
+      <c r="E10">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>129</v>
+        <v>2091</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>2085</v>
       </c>
       <c r="C11">
-        <v>340</v>
+        <v>4277</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>2090</v>
+      </c>
+      <c r="E11">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2086</v>
+      </c>
+      <c r="B12">
+        <v>2094</v>
+      </c>
+      <c r="C12">
+        <v>2294</v>
+      </c>
+      <c r="D12">
+        <v>2084</v>
+      </c>
+      <c r="E12">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2072</v>
+      </c>
+      <c r="B13">
+        <v>2083</v>
+      </c>
+      <c r="C13">
+        <v>4367</v>
+      </c>
+      <c r="D13">
+        <v>2094</v>
+      </c>
+      <c r="E13">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2089</v>
+      </c>
+      <c r="B14">
+        <v>2104</v>
+      </c>
+      <c r="C14">
+        <v>2271</v>
+      </c>
+      <c r="D14">
+        <v>2111</v>
+      </c>
+      <c r="E14">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2100</v>
+      </c>
+      <c r="B15">
+        <v>2059</v>
+      </c>
+      <c r="C15">
+        <v>2352</v>
+      </c>
+      <c r="D15">
+        <v>2555</v>
+      </c>
+      <c r="E15">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2094</v>
+      </c>
+      <c r="B16">
+        <v>2056</v>
+      </c>
+      <c r="C16">
+        <v>2389</v>
+      </c>
+      <c r="D16">
+        <v>2106</v>
+      </c>
+      <c r="E16">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2115</v>
+      </c>
+      <c r="B17">
+        <v>2109</v>
+      </c>
+      <c r="C17">
+        <v>2292</v>
+      </c>
+      <c r="D17">
+        <v>2126</v>
+      </c>
+      <c r="E17">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2078</v>
+      </c>
+      <c r="B18">
+        <v>2061</v>
+      </c>
+      <c r="C18">
+        <v>4283</v>
+      </c>
+      <c r="D18">
+        <v>2107</v>
+      </c>
+      <c r="E18">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2086</v>
+      </c>
+      <c r="B19">
+        <v>2068</v>
+      </c>
+      <c r="C19">
+        <v>2393</v>
+      </c>
+      <c r="D19">
+        <v>2073</v>
+      </c>
+      <c r="E19">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2078</v>
+      </c>
+      <c r="B20">
+        <v>2093</v>
+      </c>
+      <c r="C20">
+        <v>2370</v>
+      </c>
+      <c r="D20">
+        <v>2087</v>
+      </c>
+      <c r="E20">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2074</v>
+      </c>
+      <c r="B21">
+        <v>2059</v>
+      </c>
+      <c r="C21">
+        <v>2236</v>
+      </c>
+      <c r="D21">
+        <v>2095</v>
+      </c>
+      <c r="E21">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2084</v>
+      </c>
+      <c r="B22">
+        <v>2081</v>
+      </c>
+      <c r="C22">
+        <v>2394</v>
+      </c>
+      <c r="D22">
+        <v>2081</v>
+      </c>
+      <c r="E22">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2081</v>
+      </c>
+      <c r="B23">
+        <v>2081</v>
+      </c>
+      <c r="C23">
+        <v>2401</v>
+      </c>
+      <c r="D23">
+        <v>2066</v>
+      </c>
+      <c r="E23">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2061</v>
+      </c>
+      <c r="B24">
+        <v>2062</v>
+      </c>
+      <c r="C24">
+        <v>2341</v>
+      </c>
+      <c r="D24">
+        <v>2075</v>
+      </c>
+      <c r="E24">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2130</v>
+      </c>
+      <c r="B25">
+        <v>2083</v>
+      </c>
+      <c r="C25">
+        <v>2402</v>
+      </c>
+      <c r="D25">
+        <v>2104</v>
+      </c>
+      <c r="E25">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>2074</v>
+      </c>
+      <c r="B26">
+        <v>2081</v>
+      </c>
+      <c r="C26">
+        <v>4277</v>
+      </c>
+      <c r="D26">
+        <v>2072</v>
+      </c>
+      <c r="E26">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2102</v>
+      </c>
+      <c r="B27">
+        <v>2071</v>
+      </c>
+      <c r="C27">
+        <v>2341</v>
+      </c>
+      <c r="D27">
+        <v>2094</v>
+      </c>
+      <c r="E27">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2071</v>
+      </c>
+      <c r="B28">
+        <v>2067</v>
+      </c>
+      <c r="C28">
+        <v>2368</v>
+      </c>
+      <c r="D28">
+        <v>2077</v>
+      </c>
+      <c r="E28">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>2077</v>
+      </c>
+      <c r="B29">
+        <v>2081</v>
+      </c>
+      <c r="C29">
+        <v>4345</v>
+      </c>
+      <c r="D29">
+        <v>2111</v>
+      </c>
+      <c r="E29">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>2098</v>
+      </c>
+      <c r="B30">
+        <v>2054</v>
+      </c>
+      <c r="C30">
+        <v>2271</v>
+      </c>
+      <c r="D30">
+        <v>2071</v>
+      </c>
+      <c r="E30">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>2072</v>
+      </c>
+      <c r="B31">
+        <v>2077</v>
+      </c>
+      <c r="C31">
+        <v>2420</v>
+      </c>
+      <c r="D31">
+        <v>2069</v>
+      </c>
+      <c r="E31">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f>AVERAGE(A2:A31)</f>
+        <v>2106.6666666666665</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:E33" si="0">AVERAGE(B2:B31)</f>
+        <v>2077.2333333333331</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2755.5666666666666</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2114.5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2111.4333333333334</v>
       </c>
     </row>
   </sheetData>
